--- a/database/capsules_spreadsheets/database-example-summer-2022-capsules.xlsx
+++ b/database/capsules_spreadsheets/database-example-summer-2022-capsules.xlsx
@@ -60,7 +60,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="122">
+  <si>
+    <t>title</t>
+  </si>
   <si>
     <t>characters</t>
   </si>
@@ -789,99 +792,101 @@
   </cols>
   <sheetData>
     <row r="1" ht="33.75" customHeight="1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" ht="65.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="6">
         <f t="shared" ref="B2:B21" si="1">len(H2)</f>
         <v>495</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="11">
         <v>1990.0</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="15">
         <v>42457.0</v>
@@ -901,35 +906,35 @@
     </row>
     <row r="3" ht="101.25" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6">
         <f t="shared" si="1"/>
         <v>477</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" s="20">
         <v>1934.0</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K3" s="15">
         <v>42458.0</v>
@@ -944,42 +949,42 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T3" s="22"/>
       <c r="U3" s="22"/>
     </row>
     <row r="4">
       <c r="A4" s="23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="24">
         <f t="shared" si="1"/>
         <v>454</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="29">
         <v>1949.0</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4" s="32">
         <v>44728.0</v>
@@ -998,46 +1003,46 @@
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
       <c r="S4" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T4" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U4" s="27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="24">
         <f t="shared" si="1"/>
         <v>458</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="42">
         <v>1966.0</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" s="32">
         <v>44729.0</v>
@@ -1055,43 +1060,43 @@
       <c r="P5" s="46"/>
       <c r="Q5" s="47"/>
       <c r="S5" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T5" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U5" s="27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="24">
         <f t="shared" si="1"/>
         <v>453</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" s="42">
         <v>1943.0</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J6" s="37"/>
       <c r="K6" s="32">
@@ -1111,46 +1116,46 @@
       <c r="Q6" s="47"/>
       <c r="R6" s="47"/>
       <c r="S6" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T6" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U6" s="27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" s="24">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7" s="42">
         <v>1998.0</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K7" s="32">
         <v>44736.0</v>
@@ -1169,43 +1174,43 @@
       <c r="Q7" s="50"/>
       <c r="R7" s="50"/>
       <c r="S7" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T7" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U7" s="27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="24">
         <f t="shared" si="1"/>
         <v>459</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G8" s="42">
         <v>1970.0</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J8" s="37"/>
       <c r="K8" s="32">
@@ -1224,49 +1229,49 @@
       <c r="P8" s="36"/>
       <c r="Q8" s="47"/>
       <c r="R8" s="27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S8" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T8" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U8" s="27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="24">
         <f t="shared" si="1"/>
         <v>456</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G9" s="42">
         <v>2018.0</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="32">
         <v>44743.0</v>
@@ -1285,46 +1290,46 @@
       <c r="Q9" s="47"/>
       <c r="R9" s="47"/>
       <c r="S9" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T9" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U9" s="27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="24">
         <f t="shared" si="1"/>
         <v>460</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" s="56">
         <v>1937.0</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" s="56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" s="52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10" s="57">
         <v>44749.0</v>
@@ -1343,46 +1348,46 @@
       <c r="Q10" s="47"/>
       <c r="R10" s="47"/>
       <c r="S10" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T10" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U10" s="27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B11" s="24">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G11" s="42">
         <v>2021.0</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J11" s="42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" s="32">
         <v>44750.0</v>
@@ -1401,46 +1406,46 @@
       <c r="Q11" s="59"/>
       <c r="R11" s="59"/>
       <c r="S11" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T11" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U11" s="27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" s="24">
         <f t="shared" si="1"/>
         <v>448</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G12" s="42">
         <v>1928.0</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12" s="32">
         <v>44756.0</v>
@@ -1459,46 +1464,46 @@
       <c r="Q12" s="47"/>
       <c r="R12" s="47"/>
       <c r="S12" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T12" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U12" s="27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B13" s="24">
         <f t="shared" si="1"/>
         <v>457</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="42">
         <v>1967.0</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I13" s="42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K13" s="32">
         <v>44757.0</v>
@@ -1517,43 +1522,43 @@
       <c r="Q13" s="50"/>
       <c r="R13" s="50"/>
       <c r="S13" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T13" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U13" s="27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B14" s="24">
         <f t="shared" si="1"/>
         <v>442</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" s="42">
         <v>1948.0</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J14" s="37"/>
       <c r="K14" s="32">
@@ -1573,46 +1578,46 @@
       <c r="Q14" s="47"/>
       <c r="R14" s="47"/>
       <c r="S14" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T14" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U14" s="27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B15" s="24">
         <f t="shared" si="1"/>
         <v>453</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G15" s="42">
         <v>1971.0</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K15" s="32">
         <v>44764.0</v>
@@ -1631,43 +1636,43 @@
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
       <c r="S15" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T15" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U15" s="27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" ht="18.0" customHeight="1">
       <c r="A16" s="37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B16" s="24">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="42">
         <v>1933.0</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I16" s="42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J16" s="37"/>
       <c r="K16" s="32">
@@ -1687,46 +1692,46 @@
       <c r="Q16" s="47"/>
       <c r="R16" s="47"/>
       <c r="S16" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T16" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U16" s="27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B17" s="24">
         <f t="shared" si="1"/>
         <v>458</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G17" s="42">
         <v>2009.0</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K17" s="32">
         <v>44771.0</v>
@@ -1745,43 +1750,43 @@
       <c r="Q17" s="47"/>
       <c r="R17" s="47"/>
       <c r="S17" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T17" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U17" s="27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B18" s="24">
         <f t="shared" si="1"/>
         <v>452</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G18" s="42">
         <v>1925.0</v>
       </c>
       <c r="H18" s="41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I18" s="42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J18" s="37"/>
       <c r="K18" s="32">
@@ -1799,50 +1804,50 @@
       <c r="O18" s="36"/>
       <c r="P18" s="36"/>
       <c r="Q18" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R18" s="47"/>
       <c r="S18" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T18" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U18" s="27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B19" s="24">
         <f t="shared" si="1"/>
         <v>458</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G19" s="42">
         <v>1974.0</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K19" s="32">
         <v>44778.0</v>
@@ -1861,43 +1866,43 @@
       <c r="Q19" s="47"/>
       <c r="R19" s="47"/>
       <c r="S19" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T19" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U19" s="27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B20" s="24">
         <f t="shared" si="1"/>
         <v>448</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="42">
         <v>1919.0</v>
       </c>
       <c r="H20" s="41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J20" s="37"/>
       <c r="K20" s="32">
@@ -1917,46 +1922,46 @@
       <c r="Q20" s="27"/>
       <c r="R20" s="27"/>
       <c r="S20" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T20" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U20" s="27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B21" s="24">
         <f t="shared" si="1"/>
         <v>460</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G21" s="42">
         <v>1978.0</v>
       </c>
       <c r="H21" s="41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21" s="32">
         <v>44785.0</v>
@@ -1975,13 +1980,13 @@
       <c r="Q21" s="47"/>
       <c r="R21" s="47"/>
       <c r="S21" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T21" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U21" s="27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/database/capsules_spreadsheets/database-example-summer-2022-capsules.xlsx
+++ b/database/capsules_spreadsheets/database-example-summer-2022-capsules.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="133">
   <si>
     <t>title</t>
   </si>
@@ -430,6 +430,39 @@
   </si>
   <si>
     <t xml:space="preserve">Young Wong Fei-hung (Jackie Chan) gets himself into trouble around town and is sentenced to harsh kung fu training by his father. His teacher turns out to be Beggar So, the titular Drunken Master—a tyrannical trainer whom Wong attempts to escape, until a killer with a "Devil's Kick" appears on the scene, intent on murdering Wong's father. A fast-paced, mischievous comedy, this classic Hong Kong martial arts film made Jackie Chan a household name in Asia.  </t>
+  </si>
+  <si>
+    <t>Cameron Movie 1</t>
+  </si>
+  <si>
+    <t>Cameron Star</t>
+  </si>
+  <si>
+    <t>15m</t>
+  </si>
+  <si>
+    <t>Played as part of a screening of CAMERON MOVIE 1, CAMERON MOVIE 2, CAMERON MOVIE 3</t>
+  </si>
+  <si>
+    <t>Cameron's Picks</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Cameron Move 2</t>
+  </si>
+  <si>
+    <t>Cameron Superstar</t>
+  </si>
+  <si>
+    <t>48m</t>
+  </si>
+  <si>
+    <t>Cameron Movie 3</t>
+  </si>
+  <si>
+    <t>Epic Cameron</t>
   </si>
 </sst>
 </file>
@@ -1989,8 +2022,155 @@
         <v>53</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="42">
+        <v>2001.0</v>
+      </c>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="32">
+        <v>44786.0</v>
+      </c>
+      <c r="L22" s="43">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="M22" s="44">
+        <v>44786.0</v>
+      </c>
+      <c r="N22" s="45">
+        <v>0.875</v>
+      </c>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="S22" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="T22" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="U22" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="42">
+        <v>2020.0</v>
+      </c>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="32">
+        <v>44786.0</v>
+      </c>
+      <c r="L23" s="43">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="M23" s="44">
+        <v>44786.0</v>
+      </c>
+      <c r="N23" s="45">
+        <v>0.875</v>
+      </c>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="S23" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="T23" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="U23" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="42">
+        <v>1965.0</v>
+      </c>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="32">
+        <v>44786.0</v>
+      </c>
+      <c r="L24" s="43">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="M24" s="44">
+        <v>44786.0</v>
+      </c>
+      <c r="N24" s="45">
+        <v>0.875</v>
+      </c>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="S24" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="T24" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="U24" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E21">
+  <conditionalFormatting sqref="E2:E24">
     <cfRule type="notContainsText" dxfId="0" priority="1" operator="notContains" text="y">
       <formula>ISERROR(SEARCH(("y"),(E2)))</formula>
     </cfRule>
@@ -2000,17 +2180,17 @@
       <formula>ISERROR(SEARCH(("y"),(E18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B21">
+  <conditionalFormatting sqref="B2:B24">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>440</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B21">
+  <conditionalFormatting sqref="B2:B24">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>460</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E21">
+  <conditionalFormatting sqref="E2:E24">
     <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH(("y"),(E2))))</formula>
     </cfRule>
@@ -2020,7 +2200,7 @@
       <formula>NOT(ISERROR(SEARCH(("y"),(E18))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B21">
+  <conditionalFormatting sqref="B2:B24">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="between">
       <formula>440</formula>
       <formula>460</formula>
